--- a/2.2. Registro y actualización de proveedores/campos_unibell_proveedores.xlsx
+++ b/2.2. Registro y actualización de proveedores/campos_unibell_proveedores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\2.2. Registro y actualización de proveedores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.2. Registro y actualización de proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB60BB8A-10E5-4352-97D6-8D9427F19CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2F688-EFA6-4069-898E-F9F4B3F012C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -372,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +475,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +819,7 @@
   <dimension ref="A2:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1037,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -1055,6 +1049,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -1066,6 +1061,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -1077,6 +1073,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -1088,6 +1085,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -1099,6 +1097,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -1110,6 +1109,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -1121,6 +1121,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -1132,6 +1133,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -1143,6 +1145,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -1154,6 +1157,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -1165,6 +1169,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -1176,6 +1181,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -1187,6 +1193,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -1198,7 +1205,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -1210,6 +1217,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -1430,19 +1438,19 @@
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="D73" s="6"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="D74" s="6"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">

--- a/2.2. Registro y actualización de proveedores/campos_unibell_proveedores.xlsx
+++ b/2.2. Registro y actualización de proveedores/campos_unibell_proveedores.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.2. Registro y actualización de proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2F688-EFA6-4069-898E-F9F4B3F012C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DD893-F085-47F2-8CB7-94919681C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseño funcional - Proveedores" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -325,31 +324,52 @@
   </si>
   <si>
     <t>custentity_4601_defaultwitaxcode</t>
+  </si>
+  <si>
+    <t>PE AP. PATERNO</t>
+  </si>
+  <si>
+    <t>custentity_pe_ap_paterno</t>
+  </si>
+  <si>
+    <t>PE AP. MATERNO</t>
+  </si>
+  <si>
+    <t>custentity_pe_ap_materno</t>
+  </si>
+  <si>
+    <t>Dirección web</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Puesto de trabajo</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Campos de persona</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>firstname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -371,8 +391,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -392,19 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,44 +456,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,7 +501,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB49CB3-079C-437B-AE71-A964E488500E}">
-  <dimension ref="A2:E86"/>
+  <dimension ref="B2:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,796 +865,707 @@
     <col min="2" max="2" width="5.453125" customWidth="1"/>
     <col min="3" max="3" width="58.7265625" customWidth="1"/>
     <col min="4" max="4" width="54.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="8">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="8">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="8">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="8">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="8">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="8">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="8">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="8">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="8">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="8">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="8">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="8">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="8">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="8">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="8">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="8">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="8">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="8">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="8">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="8">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="8">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D50" s="6"/>
+      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D54" s="6"/>
-      <c r="E54" t="s">
+      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4">
+        <v>52</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="2"/>
+      <c r="E56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D56" s="6"/>
-    </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D57" s="6"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D58" s="6"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D59" s="6"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D60" s="6"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D61" s="6"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D62" s="6"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D63" s="6"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D64" s="6"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="6"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="6"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="6"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="6"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D69" s="6"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="6"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="13"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="14"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="14"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="14"/>
-      <c r="D74" s="6"/>
+      <c r="B74" s="10"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D75" s="6"/>
+      <c r="B75" s="10"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D76" s="6"/>
+      <c r="B76" s="10"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D77" s="6"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D79" s="6"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="6"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="6"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B71:B74"/>
+  <mergeCells count="2">
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="E51:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17810B3-4352-4FF3-9BFA-B36E540C90AF}">
-  <dimension ref="B2:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2.2. Registro y actualización de proveedores/campos_unibell_proveedores.xlsx
+++ b/2.2. Registro y actualización de proveedores/campos_unibell_proveedores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.2. Registro y actualización de proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DD893-F085-47F2-8CB7-94919681C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06BE23C-9C5D-4244-8A6B-D5C8C4AB188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,29 +495,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +850,7 @@
   <dimension ref="B2:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1397,10 +1391,10 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1408,13 +1402,13 @@
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1422,37 +1416,37 @@
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D55" s="2"/>
@@ -1512,19 +1506,19 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="9"/>
+      <c r="B73" s="12"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="10"/>
+      <c r="B74" s="13"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="10"/>
+      <c r="B75" s="13"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="10"/>
+      <c r="B76" s="13"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
